--- a/brinson_sheet - 16-02-2023.xlsx
+++ b/brinson_sheet - 16-02-2023.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\QUANT STRATEGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23D6AE-F8E7-4624-A853-BED618BD55B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9F17B-474C-4434-A771-921402E749A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8100" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Brinson" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Portfolio weight</t>
   </si>
@@ -139,6 +138,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -555,9 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735D509-9C57-40ED-A7B6-5C5F5F6AAB22}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +621,7 @@
       </c>
       <c r="E2" s="6">
         <f>SUMPRODUCT(C3:C9,E3:E9)</f>
-        <v>5.6092968322610043E-2</v>
+        <v>6.7557293265239113E-2</v>
       </c>
       <c r="F2" s="6">
         <f>SUMPRODUCT(D3:D9,F3:F9)</f>
@@ -634,7 +636,7 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(I3:I9)</f>
-        <v>3.7215582672150576E-3</v>
+        <v>-2.9144352408476733E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,7 +653,7 @@
         <v>0.17863829984259399</v>
       </c>
       <c r="E3" s="4">
-        <v>-4.4999999999999998E-2</v>
+        <v>0.171494307873789</v>
       </c>
       <c r="F3" s="4">
         <v>-8.5000000000000006E-2</v>
@@ -662,11 +664,11 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H23" si="1">C3 * (E3 - F3)</f>
-        <v>3.1060762318121525E-3</v>
+        <v>1.9917271832047116E-2</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I23" si="2">(C3 - D3) * (E3 - F3)</f>
-        <v>-4.0394557618916088E-3</v>
+        <v>-2.5902435245829424E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,7 +685,7 @@
         <v>8.8138440451624306E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>8.4000000000000005E-2</v>
+        <v>0.11718454953667699</v>
       </c>
       <c r="F4" s="4">
         <v>7.46E-2</v>
@@ -694,11 +696,11 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>2.0523615558748886E-3</v>
+        <v>9.2977545046091081E-3</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="2"/>
-        <v>1.2238602156296199E-3</v>
+        <v>5.5444187211114576E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,7 +717,7 @@
         <v>9.1094428419585899E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8192818276330797E-2</v>
       </c>
       <c r="F5" s="4">
         <v>0.02</v>
@@ -726,11 +728,11 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>3.986417865296496E-4</v>
+        <v>4.01386980177938E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="2"/>
-        <v>-2.1520022092187557E-3</v>
+        <v>-2.1668216862416709E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,7 +749,7 @@
         <v>3.5919529652719703E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>1.6E-2</v>
+        <v>9.4263983667436393E-2</v>
       </c>
       <c r="F6" s="4">
         <v>-2.4E-2</v>
@@ -758,11 +760,11 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>1.189991442821232E-3</v>
+        <v>3.5183282139549816E-3</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
-        <v>-2.4678974328755615E-4</v>
+        <v>-7.2965845423625896E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -779,7 +781,7 @@
         <v>0.19246222180986</v>
       </c>
       <c r="E7" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>-1.7987855649565399E-2</v>
       </c>
       <c r="F7" s="4">
         <v>1.2500000000000001E-2</v>
@@ -790,11 +792,11 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>2.4773001690282626E-2</v>
+        <v>-1.208441119263642E-2</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="2"/>
-        <v>1.2744112827166375E-2</v>
+        <v>-6.2166507561027722E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,7 +813,7 @@
         <v>3.6148526929485697E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>0.10100000000000001</v>
+        <v>3.61955361187455E-2</v>
       </c>
       <c r="F8" s="4">
         <v>0.11</v>
@@ -822,11 +824,11 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>-1.390203471996404E-3</v>
+        <v>-1.1400357992950362E-2</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
-        <v>-1.0648667296310329E-3</v>
+        <v>-8.7324353428225795E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,7 +845,7 @@
         <v>6.8847034317865E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>-4.8000000000000001E-2</v>
+        <v>0.24455713546876501</v>
       </c>
       <c r="F9" s="4">
         <v>0.02</v>
@@ -854,11 +856,11 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>-7.4248986651668045E-3</v>
+        <v>2.4519323167584036E-2</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="2"/>
-        <v>-2.7433003315519839E-3</v>
+        <v>9.0592303556445118E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -878,7 +880,7 @@
       </c>
       <c r="E10" s="6">
         <f>SUMPRODUCT(C11:C13,E11:E13)</f>
-        <v>4.7755720634614175E-2</v>
+        <v>3.6329736231272586E-2</v>
       </c>
       <c r="F10" s="6">
         <f>SUMPRODUCT(D11:D13,F11:F13)</f>
@@ -891,9 +893,9 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="5" t="e">
         <f>SUM(I11:I13)</f>
-        <v>5.3037695840962001E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +912,7 @@
         <v>0.64687695254949695</v>
       </c>
       <c r="E11" s="4">
-        <v>6.0400000000000002E-2</v>
+        <v>2.6269755816674099E-2</v>
       </c>
       <c r="F11" s="4">
         <v>0.05</v>
@@ -921,11 +923,11 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>4.9208091632663084E-3</v>
+        <v>-1.1228077213832415E-2</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>-1.8067111432484601E-3</v>
+        <v>4.1224708267328719E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,7 +944,7 @@
         <v>0.11202907956434</v>
       </c>
       <c r="E12" s="4">
-        <v>3.5700000000000003E-2</v>
+        <v>4.7426574043408602E-2</v>
       </c>
       <c r="F12" s="4">
         <v>0.02</v>
@@ -953,11 +955,11 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>7.9118346154109318E-3</v>
+        <v>1.382130687253319E-2</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
-        <v>6.152978066250793E-3</v>
+        <v>1.0748733026846907E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,8 +975,8 @@
       <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>5.1799999999999999E-2</v>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F13" s="4">
         <v>0.01</v>
@@ -983,13 +985,13 @@
         <f t="shared" si="3"/>
         <v>-5.6314967460378211E-4</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>9.5750266109386666E-4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>9.5750266109386666E-4</v>
+      <c r="H13" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,7 +1011,7 @@
       </c>
       <c r="E14" s="6">
         <f>SUMPRODUCT(C15:C23,E15:E23)</f>
-        <v>-7.3923627736070009E-3</v>
+        <v>3.8461387726422512E-2</v>
       </c>
       <c r="F14" s="6">
         <f>SUMPRODUCT(D15:D23,F15:F23)</f>
@@ -1022,9 +1024,9 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="5" t="e">
         <f>SUM(I15:I23)</f>
-        <v>1.17900005958105E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,7 +1043,7 @@
         <v>2.0379396324164901E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>3.6400000000000002E-2</v>
+        <v>-2.27457684867747E-2</v>
       </c>
       <c r="F15" s="4">
         <v>7.5300000000000006E-2</v>
@@ -1052,11 +1054,11 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>-6.5170551395469969E-4</v>
+        <v>-1.6425955769346272E-3</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>1.4105300305531507E-4</v>
+        <v>3.5551799696467208E-4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,7 +1075,7 @@
         <v>3.5559082898341199E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>7.2599999999999998E-2</v>
+        <v>1.8999999999999899E-2</v>
       </c>
       <c r="F16" s="4">
         <v>2.4500000000000001E-2</v>
@@ -1084,11 +1086,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>1.3921437020255215E-3</v>
+        <v>-1.59184830792942E-4</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>-3.1824818538469016E-4</v>
+        <v>3.6390125147938225E-5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1104,8 +1106,8 @@
       <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <v>3.1399999999999997E-2</v>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="4">
         <v>8.4500000000000006E-2</v>
@@ -1114,13 +1116,13 @@
         <f t="shared" si="4"/>
         <v>2.5630384155559158E-3</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.2163490742603908E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.2163490742603908E-3</v>
+      <c r="H17" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1139,7 @@
         <v>3.93667526807236E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>1.54E-2</v>
+        <v>0.12494560192028301</v>
       </c>
       <c r="F18" s="4">
         <v>5.7999999999999996E-3</v>
@@ -1148,11 +1150,11 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>2.3669079718226307E-3</v>
+        <v>2.9375695311742035E-2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>1.9889871460876838E-3</v>
+        <v>2.468531986795031E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1169,7 +1171,7 @@
         <v>1.7410733433619499E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>7.9799999999999996E-2</v>
+        <v>-1.9816349505511099E-2</v>
       </c>
       <c r="F19" s="4">
         <v>6.6000000000000003E-2</v>
@@ -1180,11 +1182,11 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>3.4959330537622652E-3</v>
+        <v>-2.1739725564458801E-2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>3.2556649323783166E-3</v>
+        <v>-2.0245599978972025E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,7 +1203,7 @@
         <v>4.3022525960761402E-3</v>
       </c>
       <c r="E20" s="4">
-        <v>-2.8899999999999999E-2</v>
+        <v>5.8676864387321802E-2</v>
       </c>
       <c r="F20" s="4">
         <v>6.1499999999999999E-2</v>
@@ -1212,11 +1214,11 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0267283547444684E-3</v>
+        <v>-3.2064086093203567E-5</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="2"/>
-        <v>-6.378047200591853E-4</v>
+        <v>-1.9918243574483785E-5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1233,7 +1235,7 @@
         <v>8.6335224456723699E-3</v>
       </c>
       <c r="E21" s="4">
-        <v>4.2099999999999999E-2</v>
+        <v>-8.27965837227344E-3</v>
       </c>
       <c r="F21" s="4">
         <v>7.5600000000000001E-2</v>
@@ -1244,11 +1246,11 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3591334069183088E-4</v>
+        <v>-3.4030939061090106E-4</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="2"/>
-        <v>1.5330966123819351E-4</v>
+        <v>3.8386752268145208E-4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,7 +1267,7 @@
         <v>4.25621278321048E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>-2.5600000000000001E-2</v>
+        <v>0.158484621325823</v>
       </c>
       <c r="F22" s="4">
         <v>1.2500000000000001E-2</v>
@@ -1276,11 +1278,11 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>-5.4616566710437417E-4</v>
+        <v>2.0926978502204085E-3</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="2"/>
-        <v>1.0754514032988187E-3</v>
+        <v>-4.1207182641706816E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1299,7 @@
         <v>0.62375804133550605</v>
       </c>
       <c r="E23" s="4">
-        <v>-8.5400000000000004E-2</v>
+        <v>2.3899892260271598E-2</v>
       </c>
       <c r="F23" s="4">
         <v>-5.2299999999999999E-2</v>
@@ -1308,11 +1310,11 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3298454738748815E-2</v>
+        <v>3.0614526233255522E-2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="2"/>
-        <v>7.3479364294564385E-3</v>
+        <v>-1.6915769312988077E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">

--- a/brinson_sheet - 16-02-2023.xlsx
+++ b/brinson_sheet - 16-02-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\QUANT STRATEGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9F17B-474C-4434-A771-921402E749A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBCB84-B86B-4837-8860-8879D78A4A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Portfolio weight</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +877,7 @@
       </c>
       <c r="E10" s="6">
         <f>SUMPRODUCT(C11:C13,E11:E13)</f>
-        <v>3.6329736231272586E-2</v>
+        <v>3.5883763869328539E-2</v>
       </c>
       <c r="F10" s="6">
         <f>SUMPRODUCT(D11:D13,F11:F13)</f>
@@ -893,9 +890,9 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="5" t="e">
+      <c r="I10" s="5">
         <f>SUM(I11:I13)</f>
-        <v>#VALUE!</v>
+        <v>1.4196163869364474E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,8 +972,8 @@
       <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
+      <c r="E13" s="4">
+        <v>-1.94690265486725E-2</v>
       </c>
       <c r="F13" s="4">
         <v>0.01</v>
@@ -985,13 +982,13 @@
         <f t="shared" si="3"/>
         <v>-5.6314967460378211E-4</v>
       </c>
-      <c r="H13" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.7503998421530442E-4</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.7503998421530442E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,7 +1008,7 @@
       </c>
       <c r="E14" s="6">
         <f>SUMPRODUCT(C15:C23,E15:E23)</f>
-        <v>3.8461387726422512E-2</v>
+        <v>3.8015415364478465E-2</v>
       </c>
       <c r="F14" s="6">
         <f>SUMPRODUCT(D15:D23,F15:F23)</f>
@@ -1024,9 +1021,9 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="e">
+      <c r="I14" s="5">
         <f>SUM(I15:I23)</f>
-        <v>#VALUE!</v>
+        <v>-1.8222504057097084E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1106,8 +1103,8 @@
       <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
+      <c r="E17" s="4">
+        <v>-1.94690265486725E-2</v>
       </c>
       <c r="F17" s="4">
         <v>8.4500000000000006E-2</v>
@@ -1116,13 +1113,13 @@
         <f t="shared" si="4"/>
         <v>2.5630384155559158E-3</v>
       </c>
-      <c r="H17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.3815937701361914E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.3815937701361914E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
